--- a/posiciones.xlsx
+++ b/posiciones.xlsx
@@ -65,8 +65,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -347,15 +348,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -363,7 +364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-5</v>
       </c>
@@ -371,7 +372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-5</v>
       </c>
@@ -379,7 +380,19 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/posiciones.xlsx
+++ b/posiciones.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\MATLAB\Señales 2\Proyecto-Senales-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdmed\Downloads\TemporalUniandes\SextoSemestre\Análisis_Inteligente_De_Señales_Y_Sistemas\ProyectoFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29DD320-04CC-4B6E-906A-C61E97BE583B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -65,9 +66,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -347,45 +351,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>-5</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="2">
+        <v>-7.5</v>
+      </c>
+      <c r="B2" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
+        <v>-13</v>
+      </c>
+      <c r="B3" s="2">
         <v>-5</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
+      <c r="A4" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-10</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">

--- a/posiciones.xlsx
+++ b/posiciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdmed\Downloads\TemporalUniandes\SextoSemestre\Análisis_Inteligente_De_Señales_Y_Sistemas\ProyectoFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29DD320-04CC-4B6E-906A-C61E97BE583B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F0C594-0AAA-4FC5-B3C5-2DE7D933B949}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -355,7 +355,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,6 +392,14 @@
         <v>-10</v>
       </c>
     </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>-15</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+    </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K10" s="1"/>
     </row>

--- a/posiciones.xlsx
+++ b/posiciones.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdmed\Downloads\TemporalUniandes\SextoSemestre\Análisis_Inteligente_De_Señales_Y_Sistemas\ProyectoFinal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\MATLAB\Señales 2\Proyecto-Senales-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F0C594-0AAA-4FC5-B3C5-2DE7D933B949}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -351,14 +350,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -398,6 +397,22 @@
       </c>
       <c r="B5" s="2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
